--- a/data/raw/metadata.xlsx
+++ b/data/raw/metadata.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcamacho/Dropbox/research/projects/eliomys/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0BC5AD-DA4A-1B4C-8442-3600FC9DDAEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABECEFB-E8BC-FE45-82D2-CE464F31B8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A24381AB-5CC4-D747-AEBA-7CFB4C64B618}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{A24381AB-5CC4-D747-AEBA-7CFB4C64B618}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$6:$C$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
   <si>
     <t>AJ225030</t>
   </si>
@@ -301,19 +301,108 @@
   </si>
   <si>
     <t>Iberia</t>
+  </si>
+  <si>
+    <t>Jerez de la Fra.</t>
+  </si>
+  <si>
+    <t>Spain:córdoba:Montilla</t>
+  </si>
+  <si>
+    <t>Zoobotánico de Jerez</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>karyotype</t>
+  </si>
+  <si>
+    <t>54 Alpine</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>52 Alpine</t>
+  </si>
+  <si>
+    <t>48 Iberian</t>
+  </si>
+  <si>
+    <t>48 Italian</t>
+  </si>
+  <si>
+    <t>50 Sardinian</t>
+  </si>
+  <si>
+    <t>50 northern</t>
+  </si>
+  <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>Barbosa et al. 2013</t>
+  </si>
+  <si>
+    <t>Gregoire et al. 2013</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>this study</t>
+  </si>
+  <si>
+    <t>Bentz. and Montgelar 1999</t>
+  </si>
+  <si>
+    <t>Huerner et al. 2010</t>
+  </si>
+  <si>
+    <t>Mouton et al. 2012</t>
+  </si>
+  <si>
+    <t>Gornung et al. 2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,8 +425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,536 +744,903 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E11803-AA75-7C40-A1A3-D18EB16FA98A}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" activeCellId="1" sqref="E10 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2003101123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011020017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012022013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013075014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="D42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C45" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="D45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B46" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="D46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B47" t="s">
         <v>73</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C47" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B48" t="s">
         <v>75</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C48" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C49" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="D49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B50" t="s">
         <v>79</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>80</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B51" t="s">
         <v>81</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="D51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>82</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B52" t="s">
         <v>77</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>90</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C47" xr:uid="{AFD82A07-A7BD-DE4D-BEBE-F4AFB3D5D217}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>